--- a/172_GO1A藤岡_GO1A李_GO1A周/4_開発後シート/172_開発後シート.xlsx
+++ b/172_GO1A藤岡_GO1A李_GO1A周/4_開発後シート/172_開発後シート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonic\OneDrive\文件\repos\2019TeamProject\172_GO1A藤岡_GO1A李_GO1A周\4_開発後シート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{87B4AAD8-3267-40DE-84FB-4234D1125B1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D7EDF6EF-B272-43F3-93F7-C4ED27B9C0EC}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{87B4AAD8-3267-40DE-84FB-4234D1125B1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E939D9F5-1BC7-4782-9A4F-269770FCE336}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -622,10 +622,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>✓</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>○</t>
   </si>
   <si>
@@ -819,190 +815,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>制作期間をちゃんと確認すること。もし今度のプロジェクトも三週間の制作期間しかないなら、毎日の進捗はどこまで進む必要がありますか、今週どこまで進んだら支障を来さないのか、授業しながら一日どこまで、どんなもの作れますか、事前に確認することが必要だと思います。予想と違い、進捗の影響が出てくるとき、早めに対策を立て、素早く対応することも大事です。また、各メンバー今バイトしていますかどうかを確認し、無理矢理に負担を増やさない、ちゃんと仕事を分け合った方が一番正しいと思います。そして、困っているところ、迷っていること、もしくはメンバーと相談したいことがあったら、早めに他のメンバーと相談した方がいいということを最初から伝えて、そして全員そういうことを理解させたら、制作も順調に進めると思います。</t>
-    <rPh sb="0" eb="2">
-      <t>セイサク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キカン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>コンド</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>サンシュウカン</t>
-    </rPh>
-    <rPh sb="32" eb="36">
-      <t>セイサクキカン</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>マイニチ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>シンチョク</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>コンシュウ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>シショウ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>キタ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>イチニチ</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="118" eb="120">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="122" eb="123">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="127" eb="129">
-      <t>ヨソウ</t>
-    </rPh>
-    <rPh sb="130" eb="131">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="133" eb="135">
-      <t>シンチョク</t>
-    </rPh>
-    <rPh sb="136" eb="138">
-      <t>エイキョウ</t>
-    </rPh>
-    <rPh sb="139" eb="140">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="146" eb="147">
-      <t>ハヤ</t>
-    </rPh>
-    <rPh sb="149" eb="151">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="152" eb="153">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="155" eb="157">
-      <t>スバヤ</t>
-    </rPh>
-    <rPh sb="158" eb="160">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="165" eb="167">
-      <t>ダイジ</t>
-    </rPh>
-    <rPh sb="173" eb="174">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="178" eb="179">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="192" eb="194">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="196" eb="200">
-      <t>ムリヤリ</t>
-    </rPh>
-    <rPh sb="201" eb="203">
-      <t>フタン</t>
-    </rPh>
-    <rPh sb="204" eb="205">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="214" eb="216">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="217" eb="218">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="219" eb="220">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="222" eb="223">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="224" eb="226">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="226" eb="227">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="230" eb="231">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="239" eb="240">
-      <t>コマ</t>
-    </rPh>
-    <rPh sb="248" eb="249">
-      <t>マヨ</t>
-    </rPh>
-    <rPh sb="265" eb="267">
-      <t>ソウダン</t>
-    </rPh>
-    <rPh sb="278" eb="279">
-      <t>ハヤ</t>
-    </rPh>
-    <rPh sb="281" eb="282">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="288" eb="290">
-      <t>ソウダン</t>
-    </rPh>
-    <rPh sb="292" eb="293">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="302" eb="304">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="306" eb="307">
-      <t>ツタ</t>
-    </rPh>
-    <rPh sb="313" eb="315">
-      <t>ゼンイン</t>
-    </rPh>
-    <rPh sb="322" eb="324">
-      <t>リカイ</t>
-    </rPh>
-    <rPh sb="329" eb="331">
-      <t>セイサク</t>
-    </rPh>
-    <rPh sb="332" eb="334">
-      <t>ジュンチョウ</t>
-    </rPh>
-    <rPh sb="335" eb="336">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="339" eb="340">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>今回のチーム制作で再びSDLを使ったのでSDLの書き方及びシステム構成は更に詳しくなってきました。</t>
     </r>
@@ -1266,6 +1078,215 @@
     <rPh sb="522" eb="523">
       <t>オモ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制作期間をちゃんと確認すること。もし今度のプロジェクトも三週間の制作期間しかないなら、毎日の進捗はどこまで進む必要がありますか、今週どこまで進んだら支障を来さないのか、授業しながら一日どこまで、どんなもの作れますか、事前に確認することが必要だと思います。予想と違い、進捗の影響が出てくるとき、早めに対策を立て、素早く対応することも大事です。もしメンバー全員の授業時間はそれぞれ違いましたら、ちゃんとLINEもしくは他の連絡方法（Slackなど）を確保します。また、各メンバー今バイトしていますかどうかを確認し、無理矢理に負担を増やさない、ちゃんと仕事を分け合った方が一番正しいと思います。そして、困っているところ、迷っていること、もしくはメンバーと相談したいことがあったら、早めに他のメンバーと相談した方がいいということを最初から伝えて、そして全員そういうことを理解させたら、制作も順調に進めると思います。</t>
+    <rPh sb="0" eb="2">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コンド</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>サンシュウカン</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>セイサクキカン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>マイニチ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>コンシュウ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>シショウ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>イチニチ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ヨソウ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>スバヤ</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>ダイジ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="188" eb="189">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="207" eb="208">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="209" eb="213">
+      <t>レンラクホウホウ</t>
+    </rPh>
+    <rPh sb="223" eb="225">
+      <t>カクホ</t>
+    </rPh>
+    <rPh sb="232" eb="233">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="237" eb="238">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="251" eb="253">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="255" eb="259">
+      <t>ムリヤリ</t>
+    </rPh>
+    <rPh sb="260" eb="262">
+      <t>フタン</t>
+    </rPh>
+    <rPh sb="263" eb="264">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="273" eb="275">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="276" eb="277">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="278" eb="279">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="281" eb="282">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="283" eb="285">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="285" eb="286">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="289" eb="290">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="298" eb="299">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="307" eb="308">
+      <t>マヨ</t>
+    </rPh>
+    <rPh sb="324" eb="326">
+      <t>ソウダン</t>
+    </rPh>
+    <rPh sb="337" eb="338">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="340" eb="341">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="347" eb="349">
+      <t>ソウダン</t>
+    </rPh>
+    <rPh sb="351" eb="352">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="361" eb="363">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="365" eb="366">
+      <t>ツタ</t>
+    </rPh>
+    <rPh sb="372" eb="374">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="381" eb="383">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="388" eb="390">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="391" eb="393">
+      <t>ジュンチョウ</t>
+    </rPh>
+    <rPh sb="394" eb="395">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="398" eb="399">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1413,12 +1434,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Microsoft JhengHei"/>
       <family val="2"/>
       <charset val="136"/>
@@ -1427,6 +1442,13 @@
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -2183,9 +2205,114 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2201,120 +2328,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2323,6 +2342,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2370,8 +2392,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2727,8 +2749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Z28" sqref="Z28"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9:T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2737,374 +2759,374 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="62"/>
     </row>
     <row r="2" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="94"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="59"/>
     </row>
     <row r="3" spans="1:22" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="82"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="62"/>
     </row>
     <row r="4" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="93"/>
-      <c r="V4" s="94"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="59"/>
     </row>
     <row r="5" spans="1:22" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="75" t="s">
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="75" t="s">
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="75" t="s">
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="82"/>
+      <c r="V5" s="62"/>
     </row>
     <row r="6" spans="1:22" ht="25.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="78" t="s">
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="96" t="s">
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="97"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="99" t="s">
-        <v>56</v>
-      </c>
-      <c r="V6" s="100"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="122" t="s">
+        <v>62</v>
+      </c>
+      <c r="V6" s="71"/>
     </row>
     <row r="7" spans="1:22" ht="25.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="73" t="s">
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="57" t="s">
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="58"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="93"/>
     </row>
     <row r="8" spans="1:22" ht="25.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="73" t="s">
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="57" t="s">
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="58"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="81"/>
+      <c r="V8" s="93"/>
     </row>
     <row r="9" spans="1:22" ht="25.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="67"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="58"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="81"/>
+      <c r="V9" s="93"/>
     </row>
     <row r="10" spans="1:22" ht="25.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="67"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="63"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="58"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="93"/>
     </row>
     <row r="11" spans="1:22" ht="25.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="67"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="58"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="81"/>
+      <c r="V11" s="93"/>
     </row>
     <row r="12" spans="1:22" ht="25.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="58"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="81"/>
+      <c r="V12" s="93"/>
     </row>
     <row r="13" spans="1:22" ht="25.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="67"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="58"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="93"/>
     </row>
     <row r="14" spans="1:22" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="70"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="60"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="99"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="95"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
@@ -3113,30 +3135,30 @@
     </row>
     <row r="16" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="17" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="82"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="62"/>
     </row>
     <row r="18" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
@@ -3165,34 +3187,34 @@
     <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" s="7"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="61"/>
+      <c r="D19" s="96"/>
       <c r="E19" s="49"/>
       <c r="F19" s="52"/>
-      <c r="G19" s="61" t="s">
+      <c r="G19" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="61"/>
+      <c r="H19" s="96"/>
       <c r="I19" s="49"/>
       <c r="J19" s="52"/>
-      <c r="K19" s="61" t="s">
+      <c r="K19" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="L19" s="61"/>
+      <c r="L19" s="96"/>
       <c r="M19" s="49"/>
       <c r="N19" s="52"/>
-      <c r="O19" s="61" t="s">
+      <c r="O19" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="P19" s="61"/>
+      <c r="P19" s="96"/>
       <c r="Q19" s="49"/>
       <c r="R19" s="52"/>
-      <c r="S19" s="61" t="s">
+      <c r="S19" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="T19" s="61"/>
+      <c r="T19" s="96"/>
       <c r="U19" s="49"/>
       <c r="V19" s="48"/>
     </row>
@@ -3223,33 +3245,33 @@
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A21" s="7"/>
       <c r="B21" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="61"/>
+      <c r="D21" s="96"/>
       <c r="E21" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="61"/>
+      <c r="F21" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="96"/>
+      <c r="R21" s="96"/>
+      <c r="S21" s="96"/>
+      <c r="T21" s="96"/>
+      <c r="U21" s="96"/>
       <c r="V21" s="48" t="s">
         <v>44</v>
       </c>
@@ -3279,30 +3301,30 @@
       <c r="V22" s="51"/>
     </row>
     <row r="23" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="76"/>
-      <c r="T23" s="76"/>
-      <c r="U23" s="76"/>
-      <c r="V23" s="82"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="62"/>
     </row>
     <row r="24" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
@@ -3331,30 +3353,30 @@
     <row r="25" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A25" s="53"/>
       <c r="B25" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
       <c r="G25" s="54"/>
       <c r="H25" s="16"/>
-      <c r="I25" s="62" t="s">
+      <c r="I25" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="97"/>
       <c r="M25" s="54"/>
       <c r="N25" s="16"/>
-      <c r="O25" s="62" t="s">
+      <c r="O25" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="62"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="97"/>
       <c r="S25" s="54"/>
       <c r="T25" s="54"/>
       <c r="U25" s="54"/>
@@ -3385,285 +3407,305 @@
       <c r="V26" s="5"/>
     </row>
     <row r="27" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="76"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="76"/>
-      <c r="R27" s="76"/>
-      <c r="S27" s="76"/>
-      <c r="T27" s="76"/>
-      <c r="U27" s="76"/>
-      <c r="V27" s="82"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="61"/>
+      <c r="V27" s="62"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A28" s="83" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="84"/>
-      <c r="R28" s="84"/>
-      <c r="S28" s="84"/>
-      <c r="T28" s="84"/>
-      <c r="U28" s="84"/>
-      <c r="V28" s="85"/>
+      <c r="A28" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="73"/>
+      <c r="U28" s="73"/>
+      <c r="V28" s="74"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A29" s="86"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="87"/>
-      <c r="P29" s="87"/>
-      <c r="Q29" s="87"/>
-      <c r="R29" s="87"/>
-      <c r="S29" s="87"/>
-      <c r="T29" s="87"/>
-      <c r="U29" s="87"/>
-      <c r="V29" s="88"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="76"/>
+      <c r="P29" s="76"/>
+      <c r="Q29" s="76"/>
+      <c r="R29" s="76"/>
+      <c r="S29" s="76"/>
+      <c r="T29" s="76"/>
+      <c r="U29" s="76"/>
+      <c r="V29" s="77"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A30" s="86"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="87"/>
-      <c r="P30" s="87"/>
-      <c r="Q30" s="87"/>
-      <c r="R30" s="87"/>
-      <c r="S30" s="87"/>
-      <c r="T30" s="87"/>
-      <c r="U30" s="87"/>
-      <c r="V30" s="88"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="76"/>
+      <c r="P30" s="76"/>
+      <c r="Q30" s="76"/>
+      <c r="R30" s="76"/>
+      <c r="S30" s="76"/>
+      <c r="T30" s="76"/>
+      <c r="U30" s="76"/>
+      <c r="V30" s="77"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A31" s="86"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="87"/>
-      <c r="O31" s="87"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="87"/>
-      <c r="S31" s="87"/>
-      <c r="T31" s="87"/>
-      <c r="U31" s="87"/>
-      <c r="V31" s="88"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="76"/>
+      <c r="P31" s="76"/>
+      <c r="Q31" s="76"/>
+      <c r="R31" s="76"/>
+      <c r="S31" s="76"/>
+      <c r="T31" s="76"/>
+      <c r="U31" s="76"/>
+      <c r="V31" s="77"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A32" s="86"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="87"/>
-      <c r="O32" s="87"/>
-      <c r="P32" s="87"/>
-      <c r="Q32" s="87"/>
-      <c r="R32" s="87"/>
-      <c r="S32" s="87"/>
-      <c r="T32" s="87"/>
-      <c r="U32" s="87"/>
-      <c r="V32" s="88"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="76"/>
+      <c r="Q32" s="76"/>
+      <c r="R32" s="76"/>
+      <c r="S32" s="76"/>
+      <c r="T32" s="76"/>
+      <c r="U32" s="76"/>
+      <c r="V32" s="77"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A33" s="86"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="87"/>
-      <c r="O33" s="87"/>
-      <c r="P33" s="87"/>
-      <c r="Q33" s="87"/>
-      <c r="R33" s="87"/>
-      <c r="S33" s="87"/>
-      <c r="T33" s="87"/>
-      <c r="U33" s="87"/>
-      <c r="V33" s="88"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="76"/>
+      <c r="T33" s="76"/>
+      <c r="U33" s="76"/>
+      <c r="V33" s="77"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A34" s="86"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="87"/>
-      <c r="O34" s="87"/>
-      <c r="P34" s="87"/>
-      <c r="Q34" s="87"/>
-      <c r="R34" s="87"/>
-      <c r="S34" s="87"/>
-      <c r="T34" s="87"/>
-      <c r="U34" s="87"/>
-      <c r="V34" s="88"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="76"/>
+      <c r="P34" s="76"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="76"/>
+      <c r="S34" s="76"/>
+      <c r="T34" s="76"/>
+      <c r="U34" s="76"/>
+      <c r="V34" s="77"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A35" s="86"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="87"/>
-      <c r="Q35" s="87"/>
-      <c r="R35" s="87"/>
-      <c r="S35" s="87"/>
-      <c r="T35" s="87"/>
-      <c r="U35" s="87"/>
-      <c r="V35" s="88"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="76"/>
+      <c r="Q35" s="76"/>
+      <c r="R35" s="76"/>
+      <c r="S35" s="76"/>
+      <c r="T35" s="76"/>
+      <c r="U35" s="76"/>
+      <c r="V35" s="77"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A36" s="86"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="87"/>
-      <c r="N36" s="87"/>
-      <c r="O36" s="87"/>
-      <c r="P36" s="87"/>
-      <c r="Q36" s="87"/>
-      <c r="R36" s="87"/>
-      <c r="S36" s="87"/>
-      <c r="T36" s="87"/>
-      <c r="U36" s="87"/>
-      <c r="V36" s="88"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="76"/>
+      <c r="P36" s="76"/>
+      <c r="Q36" s="76"/>
+      <c r="R36" s="76"/>
+      <c r="S36" s="76"/>
+      <c r="T36" s="76"/>
+      <c r="U36" s="76"/>
+      <c r="V36" s="77"/>
     </row>
     <row r="37" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="89"/>
-      <c r="B37" s="90"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="90"/>
-      <c r="M37" s="90"/>
-      <c r="N37" s="90"/>
-      <c r="O37" s="90"/>
-      <c r="P37" s="90"/>
-      <c r="Q37" s="90"/>
-      <c r="R37" s="90"/>
-      <c r="S37" s="90"/>
-      <c r="T37" s="90"/>
-      <c r="U37" s="90"/>
-      <c r="V37" s="91"/>
+      <c r="A37" s="78"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="79"/>
+      <c r="P37" s="79"/>
+      <c r="Q37" s="79"/>
+      <c r="R37" s="79"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="79"/>
+      <c r="U37" s="79"/>
+      <c r="V37" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A2:V2"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="A3:V3"/>
-    <mergeCell ref="A4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="F21:U21"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
     <mergeCell ref="A27:V27"/>
     <mergeCell ref="A17:V17"/>
     <mergeCell ref="A28:V37"/>
@@ -3680,38 +3722,18 @@
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="E10:J10"/>
     <mergeCell ref="E11:J11"/>
+    <mergeCell ref="A2:V2"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="A3:V3"/>
+    <mergeCell ref="A4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
     <mergeCell ref="E5:J5"/>
     <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="F21:U21"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -3741,18 +3763,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="36.6" x14ac:dyDescent="0.45">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
     </row>
     <row r="3" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="56"/>
@@ -3909,10 +3931,10 @@
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
-      <c r="I8" s="101" t="s">
+      <c r="I8" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="102"/>
+      <c r="J8" s="101"/>
       <c r="K8" s="25">
         <f>K5+K6+K7</f>
         <v>11.049999999999999</v>
@@ -3945,7 +3967,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4047,7 +4069,7 @@
       <c r="C7" s="115"/>
       <c r="D7" s="116"/>
       <c r="E7" s="13">
-        <v>36.67</v>
+        <v>37</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>15</v>
@@ -4068,21 +4090,21 @@
       <c r="I8" s="107"/>
     </row>
     <row r="9" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="122" t="s">
+      <c r="A9" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
     </row>
     <row r="10" spans="1:9" ht="218.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="104" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" s="105"/>
       <c r="C10" s="105"/>
@@ -4094,21 +4116,21 @@
       <c r="I10" s="106"/>
     </row>
     <row r="11" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
     </row>
     <row r="12" spans="1:9" ht="235.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="104" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="105"/>
       <c r="C12" s="105"/>
@@ -4183,6 +4205,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A10:I10"/>
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A8:I8"/>
@@ -4199,7 +4222,6 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
